--- a/Team-Data/2020-21/1-14-2020-21.xlsx
+++ b/Team-Data/2020-21/1-14-2020-21.xlsx
@@ -3049,16 +3049,16 @@
         <v>110.7</v>
       </c>
       <c r="BN3" t="n">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="BO3" t="n">
-        <v>108.2</v>
+        <v>108</v>
       </c>
       <c r="BP3" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BR3" t="n">
         <v>2</v>
@@ -3073,13 +3073,13 @@
         <v>16.8</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.303</v>
+        <v>0.301</v>
       </c>
       <c r="BW3" t="n">
         <v>0.736</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.518</v>
+        <v>0.517</v>
       </c>
       <c r="BY3" t="n">
         <v>0.156</v>
@@ -3091,16 +3091,16 @@
         <v>0.577</v>
       </c>
       <c r="CB3" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.83</v>
+        <v>83.92</v>
       </c>
       <c r="CE3" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="CF3" t="n">
         <v>0.508</v>
@@ -3157,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="CX3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CY3" t="n">
         <v>11</v>
@@ -3203,7 +3203,7 @@
         <v>0.156</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.303</v>
+        <v>0.301</v>
       </c>
       <c r="DM3" t="n">
         <v>0.538</v>
@@ -3212,7 +3212,7 @@
         <v>0.266</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="DP3" t="n">
         <v>0.264</v>
@@ -3251,7 +3251,7 @@
         <v>22</v>
       </c>
       <c r="EB3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="EC3" t="n">
         <v>17</v>
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="HI3" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="HJ3" t="n">
         <v>33.6</v>
@@ -3648,16 +3648,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="IY3" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="IZ3" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="JA3" t="n">
         <v>23.1</v>
       </c>
       <c r="JB3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="JC3" t="n">
         <v>7.8</v>
@@ -3729,7 +3729,7 @@
         <v>3</v>
       </c>
       <c r="JZ3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="KA3" t="n">
         <v>8</v>
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="JZ9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="KA9" t="n">
         <v>25</v>
@@ -9386,16 +9386,16 @@
         <v>11.3</v>
       </c>
       <c r="S10" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T10" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U10" t="n">
         <v>23.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -9467,7 +9467,7 @@
         <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU10" t="n">
         <v>20</v>
@@ -9528,19 +9528,19 @@
         <v>543</v>
       </c>
       <c r="BM10" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="BN10" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="BO10" t="n">
         <v>111.1</v>
       </c>
       <c r="BP10" t="n">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="BR10" t="n">
         <v>-5.8</v>
@@ -9549,22 +9549,22 @@
         <v>0.617</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="BU10" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="BV10" t="n">
         <v>0.277</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.731</v>
+        <v>0.733</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.485</v>
@@ -9576,13 +9576,13 @@
         <v>101.4</v>
       </c>
       <c r="CC10" t="n">
-        <v>99.40000000000001</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="CD10" t="n">
-        <v>82.84</v>
+        <v>82.91</v>
       </c>
       <c r="CE10" t="n">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="CF10" t="n">
         <v>0.452</v>
@@ -9624,13 +9624,13 @@
         <v>10</v>
       </c>
       <c r="CS10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="CT10" t="n">
         <v>23</v>
       </c>
       <c r="CU10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CV10" t="n">
         <v>30</v>
@@ -9682,7 +9682,7 @@
         <v>0.247</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="DL10" t="n">
         <v>0.277</v>
@@ -9697,7 +9697,7 @@
         <v>0.165</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.269</v>
+        <v>0.267</v>
       </c>
       <c r="DQ10" t="n">
         <v>15</v>
@@ -9721,7 +9721,7 @@
         <v>15</v>
       </c>
       <c r="DX10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DY10" t="n">
         <v>10</v>
@@ -9736,7 +9736,7 @@
         <v>3</v>
       </c>
       <c r="EC10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="ED10" t="n">
         <v>10</v>
@@ -10000,13 +10000,13 @@
         <v>49.4</v>
       </c>
       <c r="HI10" t="n">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="HJ10" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.731</v>
+        <v>0.733</v>
       </c>
       <c r="HL10" t="n">
         <v>8.4</v>
@@ -10048,7 +10048,7 @@
         <v>27</v>
       </c>
       <c r="HY10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="HZ10" t="n">
         <v>11</v>
@@ -10393,7 +10393,7 @@
         <v>10</v>
       </c>
       <c r="AT11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
@@ -11491,7 +11491,7 @@
         <v>13</v>
       </c>
       <c r="CX12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CY12" t="n">
         <v>16</v>
@@ -12408,7 +12408,7 @@
         <v>17</v>
       </c>
       <c r="CU13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CV13" t="n">
         <v>9</v>
@@ -12499,7 +12499,7 @@
         <v>24</v>
       </c>
       <c r="DX13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DY13" t="n">
         <v>21</v>
@@ -13437,7 +13437,7 @@
         <v>21</v>
       </c>
       <c r="EB14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="EC14" t="n">
         <v>15</v>
@@ -17625,7 +17625,7 @@
         <v>5</v>
       </c>
       <c r="KB18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="KC18" t="n">
         <v>5</v>
@@ -24440,7 +24440,7 @@
         <v>20</v>
       </c>
       <c r="CS26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CT26" t="n">
         <v>24</v>
@@ -24552,7 +24552,7 @@
         <v>20</v>
       </c>
       <c r="EC26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="ED26" t="n">
         <v>10</v>
@@ -24864,7 +24864,7 @@
         <v>17</v>
       </c>
       <c r="HY26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="HZ26" t="n">
         <v>10</v>
@@ -25209,7 +25209,7 @@
         <v>21</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="n">
         <v>12</v>
@@ -29179,7 +29179,7 @@
         <v>30</v>
       </c>
       <c r="EB31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="EC31" t="n">
         <v>4</v>

--- a/Team-Data/2020-21/1-14-2020-21.xlsx
+++ b/Team-Data/2020-21/1-14-2020-21.xlsx
@@ -811,16 +811,16 @@
         <v>4.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -829,10 +829,10 @@
         <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -841,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
@@ -862,16 +862,16 @@
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>26</v>
       </c>
       <c r="AX2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY2" t="n">
         <v>21</v>
@@ -880,10 +880,10 @@
         <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC2" t="n">
         <v>6</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -993,10 +993,10 @@
         <v>1.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
@@ -1011,13 +1011,13 @@
         <v>7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
         <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
@@ -1029,22 +1029,22 @@
         <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR3" t="n">
         <v>4</v>
       </c>
       <c r="AS3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV3" t="n">
         <v>24</v>
@@ -1059,7 +1059,7 @@
         <v>18</v>
       </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA3" t="n">
         <v>18</v>
@@ -1068,7 +1068,7 @@
         <v>12</v>
       </c>
       <c r="BC3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -1178,16 +1178,16 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
         <v>6</v>
@@ -1208,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
         <v>9</v>
@@ -1217,10 +1217,10 @@
         <v>8</v>
       </c>
       <c r="AR4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT4" t="n">
         <v>8</v>
@@ -1247,11 +1247,11 @@
         <v>10</v>
       </c>
       <c r="BB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC4" t="n">
         <v>3</v>
       </c>
-      <c r="BC4" t="n">
-        <v>4</v>
-      </c>
       <c r="BD4" t="n">
         <v>10</v>
       </c>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -1279,94 +1279,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="J5" t="n">
         <v>87.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.445</v>
+        <v>0.442</v>
       </c>
       <c r="L5" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="M5" t="n">
         <v>35.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.363</v>
+        <v>0.358</v>
       </c>
       <c r="O5" t="n">
-        <v>16.1</v>
+        <v>16.7</v>
       </c>
       <c r="P5" t="n">
-        <v>21.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q5" t="n">
         <v>0.733</v>
       </c>
       <c r="R5" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S5" t="n">
-        <v>33.6</v>
+        <v>33.9</v>
       </c>
       <c r="T5" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U5" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="AB5" t="n">
         <v>107.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>17</v>
@@ -1378,31 +1378,31 @@
         <v>20</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>14</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>25</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT5" t="n">
         <v>15</v>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW5" t="n">
         <v>5</v>
@@ -1420,13 +1420,13 @@
         <v>10</v>
       </c>
       <c r="AY5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA5" t="n">
         <v>20</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>21</v>
       </c>
       <c r="BB5" t="n">
         <v>24</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -1539,43 +1539,43 @@
         <v>-5</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH6" t="n">
         <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
         <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
         <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
@@ -1584,34 +1584,34 @@
         <v>25</v>
       </c>
       <c r="AS6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
         <v>30</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>26</v>
       </c>
-      <c r="AY6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>27</v>
-      </c>
       <c r="BA6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC6" t="n">
         <v>24</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -1721,19 +1721,19 @@
         <v>-5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI7" t="n">
         <v>26</v>
@@ -1772,7 +1772,7 @@
         <v>22</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV7" t="n">
         <v>27</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="AD8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1912,10 +1912,10 @@
         <v>3</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
         <v>26</v>
@@ -1936,31 +1936,31 @@
         <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
         <v>6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV8" t="n">
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX8" t="n">
         <v>18</v>
@@ -1972,13 +1972,13 @@
         <v>21</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB8" t="n">
         <v>21</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -2007,94 +2007,94 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.455</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I9" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="J9" t="n">
-        <v>87.8</v>
+        <v>87.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.491</v>
+        <v>0.494</v>
       </c>
       <c r="L9" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="M9" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.377</v>
+        <v>0.384</v>
       </c>
       <c r="O9" t="n">
-        <v>17.3</v>
+        <v>16.9</v>
       </c>
       <c r="P9" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.739</v>
+        <v>0.735</v>
       </c>
       <c r="R9" t="n">
         <v>10</v>
       </c>
       <c r="S9" t="n">
-        <v>32.4</v>
+        <v>31.7</v>
       </c>
       <c r="T9" t="n">
-        <v>42.4</v>
+        <v>41.7</v>
       </c>
       <c r="U9" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="V9" t="n">
         <v>14.8</v>
       </c>
       <c r="W9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="X9" t="n">
         <v>4.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.3</v>
+        <v>116.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>2</v>
@@ -2106,40 +2106,40 @@
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AM9" t="n">
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW9" t="n">
         <v>9</v>
@@ -2151,16 +2151,16 @@
         <v>7</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -2234,16 +2234,16 @@
         <v>11.3</v>
       </c>
       <c r="S10" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T10" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U10" t="n">
         <v>23.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -2267,10 +2267,10 @@
         <v>-6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
         <v>30</v>
@@ -2294,10 +2294,10 @@
         <v>16</v>
       </c>
       <c r="AM10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
         <v>9</v>
@@ -2315,22 +2315,22 @@
         <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ10" t="n">
         <v>12</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -2371,130 +2371,130 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.545</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="J11" t="n">
-        <v>89.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.439</v>
+        <v>0.436</v>
       </c>
       <c r="L11" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="M11" t="n">
-        <v>37.8</v>
+        <v>38.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O11" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="P11" t="n">
         <v>24.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.788</v>
+        <v>0.795</v>
       </c>
       <c r="R11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="S11" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="T11" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U11" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X11" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Y11" t="n">
         <v>5.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>111.3</v>
+        <v>112</v>
       </c>
       <c r="AC11" t="n">
-        <v>-4</v>
+        <v>-3.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP11" t="n">
         <v>5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT11" t="n">
         <v>17</v>
@@ -2503,25 +2503,25 @@
         <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC11" t="n">
         <v>22</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -2553,100 +2553,100 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.333</v>
       </c>
       <c r="H12" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="J12" t="n">
         <v>86.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L12" t="n">
         <v>13.1</v>
       </c>
       <c r="M12" t="n">
-        <v>38.2</v>
+        <v>38.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.338</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>18.2</v>
       </c>
       <c r="P12" t="n">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.752</v>
+        <v>0.763</v>
       </c>
       <c r="R12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="S12" t="n">
-        <v>34.7</v>
+        <v>34.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43</v>
+        <v>42.3</v>
       </c>
       <c r="U12" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V12" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="W12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>111.1</v>
+        <v>111.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.3</v>
+        <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
         <v>4</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ12" t="n">
         <v>23</v>
@@ -2658,34 +2658,34 @@
         <v>13</v>
       </c>
       <c r="AM12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
         <v>8</v>
       </c>
-      <c r="AN12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW12" t="n">
         <v>14</v>
@@ -2694,19 +2694,19 @@
         <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -2735,103 +2735,103 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.667</v>
+        <v>0.636</v>
       </c>
       <c r="H13" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="J13" t="n">
-        <v>90.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="K13" t="n">
         <v>0.484</v>
       </c>
       <c r="L13" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="M13" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.357</v>
+        <v>0.361</v>
       </c>
       <c r="O13" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="P13" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R13" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="T13" t="n">
-        <v>43.1</v>
+        <v>42.5</v>
       </c>
       <c r="U13" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="V13" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W13" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X13" t="n">
         <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.3</v>
+        <v>22.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>114.3</v>
+        <v>114.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="AD13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE13" t="n">
         <v>5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>3</v>
       </c>
       <c r="AF13" t="n">
         <v>3</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
         <v>3</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
         <v>5</v>
@@ -2840,55 +2840,55 @@
         <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW13" t="n">
         <v>3</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BA13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BB13" t="n">
         <v>9</v>
       </c>
       <c r="BC13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -2995,16 +2995,16 @@
         <v>1.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
@@ -3031,16 +3031,16 @@
         <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT14" t="n">
         <v>30</v>
@@ -3055,23 +3055,23 @@
         <v>20</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA14" t="n">
         <v>29</v>
       </c>
       <c r="BB14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC14" t="n">
         <v>13</v>
       </c>
-      <c r="BC14" t="n">
-        <v>12</v>
-      </c>
       <c r="BD14" t="n">
         <v>10</v>
       </c>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
         <v>16</v>
       </c>
       <c r="AK15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL15" t="n">
         <v>19</v>
@@ -3210,13 +3210,13 @@
         <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>14</v>
@@ -3240,13 +3240,13 @@
         <v>3</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
         <v>6</v>
       </c>
       <c r="BA15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
         <v>7</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -3359,16 +3359,16 @@
         <v>-1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG16" t="n">
         <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>18</v>
       </c>
       <c r="AH16" t="n">
         <v>8</v>
@@ -3380,7 +3380,7 @@
         <v>3</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3401,7 +3401,7 @@
         <v>12</v>
       </c>
       <c r="AR16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS16" t="n">
         <v>13</v>
@@ -3410,10 +3410,10 @@
         <v>9</v>
       </c>
       <c r="AU16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3422,7 +3422,7 @@
         <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ16" t="n">
         <v>5</v>
@@ -3434,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -3463,106 +3463,106 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.444</v>
       </c>
       <c r="H17" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I17" t="n">
         <v>40.1</v>
       </c>
       <c r="J17" t="n">
-        <v>83.7</v>
+        <v>84</v>
       </c>
       <c r="K17" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L17" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="M17" t="n">
-        <v>36.9</v>
+        <v>37.2</v>
       </c>
       <c r="N17" t="n">
         <v>0.358</v>
       </c>
       <c r="O17" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="P17" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="V17" t="n">
         <v>17.6</v>
       </c>
-      <c r="P17" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="R17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="T17" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="U17" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="V17" t="n">
-        <v>17.8</v>
-      </c>
       <c r="W17" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA17" t="n">
         <v>21.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>111</v>
+        <v>111.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.9</v>
+        <v>-1.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
         <v>4</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
         <v>12</v>
@@ -3571,52 +3571,52 @@
         <v>12</v>
       </c>
       <c r="AN17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT17" t="n">
         <v>18</v>
       </c>
-      <c r="AO17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>20</v>
-      </c>
       <c r="AU17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV17" t="n">
         <v>29</v>
       </c>
       <c r="AW17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY17" t="n">
         <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
         <v>8</v>
       </c>
       <c r="BB17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -3723,16 +3723,16 @@
         <v>11.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF18" t="n">
         <v>3</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
@@ -3744,10 +3744,10 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL18" t="n">
         <v>2</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1</v>
       </c>
       <c r="AM18" t="n">
         <v>4</v>
@@ -3768,16 +3768,16 @@
         <v>12</v>
       </c>
       <c r="AS18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU18" t="n">
         <v>6</v>
       </c>
       <c r="AV18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW18" t="n">
         <v>4</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -3905,10 +3905,10 @@
         <v>-10.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
         <v>27</v>
@@ -3920,13 +3920,13 @@
         <v>8</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>25</v>
@@ -3938,7 +3938,7 @@
         <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP19" t="n">
         <v>16</v>
@@ -3950,22 +3950,22 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX19" t="n">
         <v>17</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -4087,19 +4087,19 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI20" t="n">
         <v>22</v>
@@ -4120,7 +4120,7 @@
         <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
         <v>4</v>
@@ -4132,7 +4132,7 @@
         <v>6</v>
       </c>
       <c r="AS20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT20" t="n">
         <v>4</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -4269,16 +4269,16 @@
         <v>-5.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>17</v>
@@ -4290,7 +4290,7 @@
         <v>27</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>29</v>
@@ -4299,19 +4299,19 @@
         <v>30</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
         <v>26</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS21" t="n">
         <v>14</v>
@@ -4320,10 +4320,10 @@
         <v>10</v>
       </c>
       <c r="AU21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
         <v>25</v>
@@ -4332,13 +4332,13 @@
         <v>20</v>
       </c>
       <c r="AY21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -4451,16 +4451,16 @@
         <v>-6.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG22" t="n">
         <v>17</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>18</v>
       </c>
       <c r="AH22" t="n">
         <v>17</v>
@@ -4472,13 +4472,13 @@
         <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
         <v>18</v>
       </c>
       <c r="AM22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN22" t="n">
         <v>27</v>
@@ -4493,19 +4493,19 @@
         <v>26</v>
       </c>
       <c r="AR22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU22" t="n">
         <v>29</v>
       </c>
       <c r="AV22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW22" t="n">
         <v>28</v>
@@ -4520,7 +4520,7 @@
         <v>7</v>
       </c>
       <c r="BA22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB22" t="n">
         <v>28</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -4633,13 +4633,13 @@
         <v>-4.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
@@ -4651,7 +4651,7 @@
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK23" t="n">
         <v>29</v>
@@ -4666,10 +4666,10 @@
         <v>29</v>
       </c>
       <c r="AO23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ23" t="n">
         <v>4</v>
@@ -4678,10 +4678,10 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
         <v>30</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -4737,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
       </c>
       <c r="I24" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="J24" t="n">
-        <v>88.5</v>
+        <v>89</v>
       </c>
       <c r="K24" t="n">
-        <v>0.477</v>
+        <v>0.473</v>
       </c>
       <c r="L24" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="M24" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="N24" t="n">
-        <v>0.366</v>
+        <v>0.358</v>
       </c>
       <c r="O24" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P24" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.765</v>
+        <v>0.759</v>
       </c>
       <c r="R24" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>37.4</v>
+        <v>38</v>
       </c>
       <c r="T24" t="n">
-        <v>46.8</v>
+        <v>47.8</v>
       </c>
       <c r="U24" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="V24" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="W24" t="n">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>114.3</v>
+        <v>113.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4827,70 +4827,70 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI24" t="n">
         <v>8</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>18</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
         <v>14</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT24" t="n">
         <v>5</v>
       </c>
-      <c r="AT24" t="n">
-        <v>7</v>
-      </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>28</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AX24" t="n">
         <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -4997,16 +4997,16 @@
         <v>3.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF25" t="n">
         <v>3</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH25" t="n">
         <v>8</v>
@@ -5024,16 +5024,16 @@
         <v>8</v>
       </c>
       <c r="AM25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
         <v>21</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ25" t="n">
         <v>2</v>
@@ -5042,13 +5042,13 @@
         <v>28</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>3</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -5101,160 +5101,160 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.583</v>
+        <v>0.636</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>40.5</v>
+        <v>41.3</v>
       </c>
       <c r="J26" t="n">
-        <v>91.3</v>
+        <v>91.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.443</v>
+        <v>0.45</v>
       </c>
       <c r="L26" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="M26" t="n">
         <v>42.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.383</v>
+        <v>0.391</v>
       </c>
       <c r="O26" t="n">
-        <v>18.6</v>
+        <v>19.4</v>
       </c>
       <c r="P26" t="n">
-        <v>23.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.805</v>
+        <v>0.798</v>
       </c>
       <c r="R26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="S26" t="n">
-        <v>34.8</v>
+        <v>35.3</v>
       </c>
       <c r="T26" t="n">
         <v>43.8</v>
       </c>
       <c r="U26" t="n">
-        <v>22.2</v>
+        <v>22.7</v>
       </c>
       <c r="V26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="W26" t="n">
         <v>8.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
         <v>5.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>20</v>
+        <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>116</v>
+        <v>118.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE26" t="n">
         <v>5</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AF26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG26" t="n">
         <v>6</v>
       </c>
-      <c r="AF26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP26" t="n">
         <v>7</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>12</v>
       </c>
       <c r="AQ26" t="n">
         <v>6</v>
       </c>
       <c r="AR26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT26" t="n">
         <v>21</v>
       </c>
       <c r="AU26" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ26" t="n">
         <v>20</v>
       </c>
       <c r="BA26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -5361,19 +5361,19 @@
         <v>-7.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
@@ -5385,13 +5385,13 @@
         <v>12</v>
       </c>
       <c r="AL27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM27" t="n">
         <v>23</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
         <v>2</v>
@@ -5406,10 +5406,10 @@
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
         <v>12</v>
@@ -5430,7 +5430,7 @@
         <v>15</v>
       </c>
       <c r="BA27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB27" t="n">
         <v>8</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -5465,97 +5465,97 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" t="n">
         <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.545</v>
       </c>
       <c r="H28" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I28" t="n">
         <v>41.9</v>
       </c>
       <c r="J28" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L28" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="M28" t="n">
         <v>31.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.373</v>
+        <v>0.381</v>
       </c>
       <c r="O28" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="P28" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.784</v>
+        <v>0.787</v>
       </c>
       <c r="R28" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S28" t="n">
-        <v>35.9</v>
+        <v>36.4</v>
       </c>
       <c r="T28" t="n">
-        <v>45.1</v>
+        <v>45.5</v>
       </c>
       <c r="U28" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="V28" t="n">
         <v>10.2</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="X28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y28" t="n">
         <v>6.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>110.7</v>
+        <v>111.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>9</v>
@@ -5564,25 +5564,25 @@
         <v>1</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM28" t="n">
         <v>25</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>18</v>
@@ -5591,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>11</v>
@@ -5600,10 +5600,10 @@
         <v>1</v>
       </c>
       <c r="AW28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
@@ -5612,13 +5612,13 @@
         <v>4</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -5647,100 +5647,100 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>0.273</v>
+        <v>0.2</v>
       </c>
       <c r="H29" t="n">
         <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J29" t="n">
-        <v>89.3</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L29" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="M29" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="O29" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="P29" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="R29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="S29" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="T29" t="n">
         <v>43.5</v>
       </c>
-      <c r="N29" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="O29" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="P29" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.789</v>
-      </c>
-      <c r="R29" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="S29" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>43.2</v>
-      </c>
       <c r="U29" t="n">
-        <v>24.5</v>
+        <v>23.6</v>
       </c>
       <c r="V29" t="n">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="W29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X29" t="n">
         <v>6</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.6</v>
+        <v>23.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="AB29" t="n">
         <v>111.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1</v>
+        <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE29" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF29" t="n">
         <v>27</v>
       </c>
       <c r="AG29" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AH29" t="n">
         <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
@@ -5749,40 +5749,40 @@
         <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP29" t="n">
         <v>17</v>
       </c>
-      <c r="AP29" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX29" t="n">
         <v>6</v>
@@ -5791,16 +5791,16 @@
         <v>30</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -5907,37 +5907,37 @@
         <v>3.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF30" t="n">
         <v>3</v>
       </c>
       <c r="AG30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH30" t="n">
         <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM30" t="n">
         <v>3</v>
       </c>
       <c r="AN30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
         <v>29</v>
@@ -5958,10 +5958,10 @@
         <v>1</v>
       </c>
       <c r="AU30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>30</v>
@@ -5982,7 +5982,7 @@
         <v>20</v>
       </c>
       <c r="BC30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
@@ -6089,10 +6089,10 @@
         <v>-0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
         <v>27</v>
@@ -6110,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="AK31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6119,28 +6119,28 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP31" t="n">
         <v>2</v>
       </c>
       <c r="AQ31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS31" t="n">
         <v>24</v>
       </c>
-      <c r="AR31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>22</v>
-      </c>
       <c r="AT31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV31" t="n">
         <v>5</v>
@@ -6149,16 +6149,16 @@
         <v>19</v>
       </c>
       <c r="AX31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>30</v>
       </c>
       <c r="BA31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB31" t="n">
         <v>2</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-14-2020-21</t>
+          <t>2021-01-14</t>
         </is>
       </c>
     </row>
